--- a/INTLINE/data/536/BIDN/SDDS/IndonesianGDP.xlsx
+++ b/INTLINE/data/536/BIDN/SDDS/IndonesianGDP.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7035" tabRatio="774" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7035" tabRatio="774" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="1. GDP - Current Prices" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="214">
   <si>
     <t xml:space="preserve">    LAPANGAN USAHA</t>
   </si>
@@ -671,6 +671,12 @@
   <si>
     <t>2021*</t>
   </si>
+  <si>
+    <t>2022**</t>
+  </si>
+  <si>
+    <t>2021**</t>
+  </si>
 </sst>
 </file>
 
@@ -1171,7 +1177,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1442,22 +1448,10 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="37" fontId="1" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="1" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1487,10 +1481,25 @@
     <xf numFmtId="4" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1501,6 +1510,9 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1816,14 +1828,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr transitionEvaluation="1" codeName="Sheet1"/>
-  <dimension ref="A1:XEF346"/>
+  <dimension ref="A1:XEE346"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <pane xSplit="3" ySplit="8" topLeftCell="BB69" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="8" topLeftCell="BE9" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2:IV2"/>
       <selection pane="topRight" activeCell="A2" sqref="A2:IV2"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:IV2"/>
-      <selection pane="bottomRight" activeCell="BE15" sqref="BE15"/>
+      <selection pane="bottomRight" activeCell="BH12" sqref="BH12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
@@ -1831,135 +1843,138 @@
     <col min="1" max="1" width="12" style="2" customWidth="1"/>
     <col min="2" max="2" width="6" style="2" customWidth="1"/>
     <col min="3" max="3" width="48" style="2" customWidth="1"/>
-    <col min="4" max="63" width="13" style="2" customWidth="1"/>
-    <col min="64" max="16360" width="8" style="2" customWidth="1"/>
+    <col min="4" max="64" width="13" style="2" customWidth="1"/>
+    <col min="65" max="16359" width="8" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:64" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:64" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>208</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>75</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="AP4" s="114"/>
       <c r="AQ4" s="114"/>
     </row>
-    <row r="5" spans="1:63" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="138" t="s">
+    <row r="5" spans="1:64" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="134" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="143" t="s">
+      <c r="B5" s="139" t="s">
         <v>156</v>
       </c>
-      <c r="C5" s="144"/>
-      <c r="D5" s="140">
+      <c r="C5" s="140"/>
+      <c r="D5" s="136">
         <v>2010</v>
       </c>
-      <c r="E5" s="141"/>
-      <c r="F5" s="141"/>
-      <c r="G5" s="141"/>
-      <c r="H5" s="142"/>
-      <c r="I5" s="140">
+      <c r="E5" s="137"/>
+      <c r="F5" s="137"/>
+      <c r="G5" s="137"/>
+      <c r="H5" s="138"/>
+      <c r="I5" s="136">
         <v>2011</v>
       </c>
-      <c r="J5" s="141"/>
-      <c r="K5" s="141"/>
-      <c r="L5" s="141"/>
-      <c r="M5" s="142"/>
-      <c r="N5" s="140">
+      <c r="J5" s="137"/>
+      <c r="K5" s="137"/>
+      <c r="L5" s="137"/>
+      <c r="M5" s="138"/>
+      <c r="N5" s="136">
         <v>2012</v>
       </c>
-      <c r="O5" s="141"/>
-      <c r="P5" s="141"/>
-      <c r="Q5" s="141"/>
-      <c r="R5" s="142"/>
-      <c r="S5" s="140">
+      <c r="O5" s="137"/>
+      <c r="P5" s="137"/>
+      <c r="Q5" s="137"/>
+      <c r="R5" s="138"/>
+      <c r="S5" s="136">
         <v>2013</v>
       </c>
-      <c r="T5" s="141"/>
-      <c r="U5" s="141"/>
-      <c r="V5" s="141"/>
-      <c r="W5" s="142"/>
-      <c r="X5" s="140">
+      <c r="T5" s="137"/>
+      <c r="U5" s="137"/>
+      <c r="V5" s="137"/>
+      <c r="W5" s="138"/>
+      <c r="X5" s="136">
         <v>2014</v>
       </c>
-      <c r="Y5" s="141"/>
-      <c r="Z5" s="141"/>
-      <c r="AA5" s="141"/>
-      <c r="AB5" s="142"/>
-      <c r="AC5" s="140">
+      <c r="Y5" s="137"/>
+      <c r="Z5" s="137"/>
+      <c r="AA5" s="137"/>
+      <c r="AB5" s="138"/>
+      <c r="AC5" s="136">
         <v>2015</v>
       </c>
-      <c r="AD5" s="141"/>
-      <c r="AE5" s="141"/>
-      <c r="AF5" s="141"/>
-      <c r="AG5" s="142"/>
-      <c r="AH5" s="134" t="s">
+      <c r="AD5" s="137"/>
+      <c r="AE5" s="137"/>
+      <c r="AF5" s="137"/>
+      <c r="AG5" s="138"/>
+      <c r="AH5" s="133" t="s">
         <v>206</v>
       </c>
-      <c r="AI5" s="135"/>
-      <c r="AJ5" s="135"/>
-      <c r="AK5" s="135"/>
-      <c r="AL5" s="135"/>
-      <c r="AM5" s="134" t="s">
+      <c r="AI5" s="145"/>
+      <c r="AJ5" s="145"/>
+      <c r="AK5" s="145"/>
+      <c r="AL5" s="145"/>
+      <c r="AM5" s="133" t="s">
         <v>205</v>
       </c>
-      <c r="AN5" s="135"/>
-      <c r="AO5" s="135"/>
-      <c r="AP5" s="135"/>
-      <c r="AQ5" s="135"/>
-      <c r="AR5" s="134" t="s">
+      <c r="AN5" s="145"/>
+      <c r="AO5" s="145"/>
+      <c r="AP5" s="145"/>
+      <c r="AQ5" s="145"/>
+      <c r="AR5" s="133" t="s">
         <v>207</v>
       </c>
-      <c r="AS5" s="135"/>
-      <c r="AT5" s="135"/>
-      <c r="AU5" s="135"/>
-      <c r="AV5" s="135"/>
-      <c r="AW5" s="134" t="s">
+      <c r="AS5" s="145"/>
+      <c r="AT5" s="145"/>
+      <c r="AU5" s="145"/>
+      <c r="AV5" s="145"/>
+      <c r="AW5" s="133" t="s">
         <v>209</v>
       </c>
-      <c r="AX5" s="135"/>
-      <c r="AY5" s="135"/>
-      <c r="AZ5" s="135"/>
-      <c r="BA5" s="135"/>
-      <c r="BB5" s="136" t="s">
+      <c r="AX5" s="145"/>
+      <c r="AY5" s="145"/>
+      <c r="AZ5" s="145"/>
+      <c r="BA5" s="145"/>
+      <c r="BB5" s="146" t="s">
         <v>210</v>
       </c>
-      <c r="BC5" s="137"/>
-      <c r="BD5" s="137"/>
-      <c r="BE5" s="137"/>
-      <c r="BF5" s="137"/>
-      <c r="BG5" s="134" t="s">
+      <c r="BC5" s="147"/>
+      <c r="BD5" s="147"/>
+      <c r="BE5" s="147"/>
+      <c r="BF5" s="147"/>
+      <c r="BG5" s="133" t="s">
         <v>211</v>
       </c>
-      <c r="BH5" s="134"/>
-      <c r="BI5" s="134"/>
-      <c r="BJ5" s="134"/>
-      <c r="BK5" s="134"/>
-    </row>
-    <row r="6" spans="1:63" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="139"/>
-      <c r="B6" s="145"/>
-      <c r="C6" s="146"/>
+      <c r="BH5" s="133"/>
+      <c r="BI5" s="133"/>
+      <c r="BJ5" s="133"/>
+      <c r="BK5" s="133"/>
+      <c r="BL5" s="132" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:64" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="135"/>
+      <c r="B6" s="141"/>
+      <c r="C6" s="142"/>
       <c r="D6" s="4" t="s">
         <v>71</v>
       </c>
@@ -2140,15 +2155,18 @@
       <c r="BK6" s="33" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="7" spans="1:63" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL6" s="33" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:64" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="14">
         <v>-1</v>
       </c>
-      <c r="B7" s="132">
+      <c r="B7" s="143">
         <v>-2</v>
       </c>
-      <c r="C7" s="133"/>
+      <c r="C7" s="144"/>
       <c r="D7" s="15">
         <v>-3</v>
       </c>
@@ -2329,8 +2347,11 @@
       <c r="BK7" s="15">
         <v>-62</v>
       </c>
-    </row>
-    <row r="8" spans="1:63" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL7" s="15">
+        <v>-63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:64" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="8"/>
       <c r="B8" s="19"/>
       <c r="C8" s="20"/>
@@ -2389,8 +2410,9 @@
       <c r="BI8" s="121"/>
       <c r="BJ8" s="121"/>
       <c r="BK8" s="121"/>
-    </row>
-    <row r="9" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL8" s="121"/>
+    </row>
+    <row r="9" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="17" t="s">
         <v>77</v>
       </c>
@@ -2578,8 +2600,11 @@
       <c r="BK9" s="12">
         <v>2253836.7999999998</v>
       </c>
-    </row>
-    <row r="10" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL9" s="12">
+        <v>566473.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="17"/>
       <c r="B10" s="25">
         <v>1</v>
@@ -2767,8 +2792,11 @@
       <c r="BK10" s="27">
         <v>1672251.9</v>
       </c>
-    </row>
-    <row r="11" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL10" s="27">
+        <v>426309.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="17"/>
       <c r="B11" s="25"/>
       <c r="C11" s="26" t="s">
@@ -2954,8 +2982,11 @@
       <c r="BK11" s="27">
         <v>440673.1</v>
       </c>
-    </row>
-    <row r="12" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL11" s="27">
+        <v>121880.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="17"/>
       <c r="B12" s="25"/>
       <c r="C12" s="26" t="s">
@@ -3141,8 +3172,11 @@
       <c r="BK12" s="27">
         <v>262547.59999999998</v>
       </c>
-    </row>
-    <row r="13" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL12" s="27">
+        <v>61442.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="17"/>
       <c r="B13" s="25"/>
       <c r="C13" s="26" t="s">
@@ -3328,8 +3362,11 @@
       <c r="BK13" s="27">
         <v>668379.80000000005</v>
       </c>
-    </row>
-    <row r="14" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL13" s="27">
+        <v>159113.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="17"/>
       <c r="B14" s="25"/>
       <c r="C14" s="26" t="s">
@@ -3515,8 +3552,11 @@
       <c r="BK14" s="27">
         <v>268169.59999999998</v>
       </c>
-    </row>
-    <row r="15" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL14" s="27">
+        <v>75108.899999999994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="17"/>
       <c r="B15" s="25"/>
       <c r="C15" s="26" t="s">
@@ -3702,8 +3742,11 @@
       <c r="BK15" s="27">
         <v>32481.8</v>
       </c>
-    </row>
-    <row r="16" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL15" s="27">
+        <v>8764.2999999999993</v>
+      </c>
+    </row>
+    <row r="16" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="17"/>
       <c r="B16" s="25">
         <v>2</v>
@@ -3891,8 +3934,11 @@
       <c r="BK16" s="27">
         <v>111990.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL16" s="27">
+        <v>26587.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="17"/>
       <c r="B17" s="25">
         <v>3</v>
@@ -4080,8 +4126,11 @@
       <c r="BK17" s="27">
         <v>469594.4</v>
       </c>
-    </row>
-    <row r="18" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL17" s="27">
+        <v>113577.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="17" t="s">
         <v>87</v>
       </c>
@@ -4269,8 +4318,11 @@
       <c r="BK18" s="12">
         <v>1523650.1</v>
       </c>
-    </row>
-    <row r="19" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL18" s="12">
+        <v>472869.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="17"/>
       <c r="B19" s="25">
         <v>1</v>
@@ -4458,8 +4510,11 @@
       <c r="BK19" s="27">
         <v>461703</v>
       </c>
-    </row>
-    <row r="20" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL19" s="27">
+        <v>133198.39999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="17"/>
       <c r="B20" s="25">
         <v>2</v>
@@ -4647,8 +4702,11 @@
       <c r="BK20" s="27">
         <v>603138</v>
       </c>
-    </row>
-    <row r="21" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL20" s="27">
+        <v>215056.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="17"/>
       <c r="B21" s="25">
         <v>3</v>
@@ -4836,8 +4894,11 @@
       <c r="BK21" s="27">
         <v>204590.1</v>
       </c>
-    </row>
-    <row r="22" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL21" s="27">
+        <v>58939.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="17"/>
       <c r="B22" s="25">
         <v>4</v>
@@ -5025,8 +5086,11 @@
       <c r="BK22" s="27">
         <v>254219</v>
       </c>
-    </row>
-    <row r="23" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL22" s="27">
+        <v>65674.7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="17" t="s">
         <v>93</v>
       </c>
@@ -5214,8 +5278,11 @@
       <c r="BK23" s="12">
         <v>3266903.5</v>
       </c>
-    </row>
-    <row r="24" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL23" s="12">
+        <v>866263.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="17"/>
       <c r="B24" s="25">
         <v>1</v>
@@ -5403,8 +5470,11 @@
       <c r="BK24" s="27">
         <v>320008.5</v>
       </c>
-    </row>
-    <row r="25" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL24" s="27">
+        <v>83721.899999999994</v>
+      </c>
+    </row>
+    <row r="25" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="17"/>
       <c r="B25" s="30" t="s">
         <v>159</v>
@@ -5590,8 +5660,11 @@
       <c r="BK25" s="32">
         <v>2946895</v>
       </c>
-    </row>
-    <row r="26" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL25" s="32">
+        <v>782541.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="17"/>
       <c r="B26" s="25">
         <v>1</v>
@@ -5779,8 +5852,11 @@
       <c r="BK26" s="27">
         <v>1121360.2</v>
       </c>
-    </row>
-    <row r="27" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL26" s="27">
+        <v>295557.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="17"/>
       <c r="B27" s="25">
         <v>2</v>
@@ -5968,8 +6044,11 @@
       <c r="BK27" s="27">
         <v>135145.79999999999</v>
       </c>
-    </row>
-    <row r="28" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL27" s="27">
+        <v>35728.800000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="17"/>
       <c r="B28" s="25">
         <v>3</v>
@@ -6157,8 +6236,11 @@
       <c r="BK28" s="27">
         <v>180216.1</v>
       </c>
-    </row>
-    <row r="29" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL28" s="27">
+        <v>49513.7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="17"/>
       <c r="B29" s="25">
         <v>4</v>
@@ -6346,8 +6428,11 @@
       <c r="BK29" s="27">
         <v>42508.5</v>
       </c>
-    </row>
-    <row r="30" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL29" s="27">
+        <v>11937.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="17"/>
       <c r="B30" s="25">
         <v>5</v>
@@ -6535,8 +6620,11 @@
       <c r="BK30" s="27">
         <v>76689.5</v>
       </c>
-    </row>
-    <row r="31" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL30" s="27">
+        <v>20939.599999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="17"/>
       <c r="B31" s="25">
         <v>6</v>
@@ -6724,8 +6812,11 @@
       <c r="BK31" s="27">
         <v>113201.7</v>
       </c>
-    </row>
-    <row r="32" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL31" s="27">
+        <v>30077.4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="17"/>
       <c r="B32" s="25">
         <v>7</v>
@@ -6913,8 +7004,11 @@
       <c r="BK32" s="27">
         <v>339183.4</v>
       </c>
-    </row>
-    <row r="33" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL32" s="27">
+        <v>89660.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="17"/>
       <c r="B33" s="25">
         <v>8</v>
@@ -7102,8 +7196,11 @@
       <c r="BK33" s="27">
         <v>88607.7</v>
       </c>
-    </row>
-    <row r="34" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL33" s="27">
+        <v>21470</v>
+      </c>
+    </row>
+    <row r="34" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="17"/>
       <c r="B34" s="25">
         <v>9</v>
@@ -7291,8 +7388,11 @@
       <c r="BK34" s="27">
         <v>89016.8</v>
       </c>
-    </row>
-    <row r="35" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL34" s="27">
+        <v>21418.9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="17"/>
       <c r="B35" s="25">
         <v>10</v>
@@ -7480,8 +7580,11 @@
       <c r="BK35" s="27">
         <v>137599</v>
       </c>
-    </row>
-    <row r="36" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL35" s="27">
+        <v>37442.199999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="17"/>
       <c r="B36" s="25">
         <v>11</v>
@@ -7669,8 +7772,11 @@
       <c r="BK36" s="27">
         <v>257365.9</v>
       </c>
-    </row>
-    <row r="37" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL36" s="27">
+        <v>69229.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="17"/>
       <c r="B37" s="25">
         <v>12</v>
@@ -7858,8 +7964,11 @@
       <c r="BK37" s="27">
         <v>48900</v>
       </c>
-    </row>
-    <row r="38" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL37" s="27">
+        <v>13482.7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="17"/>
       <c r="B38" s="25">
         <v>13</v>
@@ -8047,8 +8156,11 @@
       <c r="BK38" s="27">
         <v>251893</v>
       </c>
-    </row>
-    <row r="39" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL38" s="27">
+        <v>69152.100000000006</v>
+      </c>
+    </row>
+    <row r="39" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="17"/>
       <c r="B39" s="25">
         <v>14</v>
@@ -8236,8 +8348,11 @@
       <c r="BK39" s="27">
         <v>42173.2</v>
       </c>
-    </row>
-    <row r="40" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL39" s="27">
+        <v>11039.8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="17"/>
       <c r="B40" s="25">
         <v>15</v>
@@ -8425,8 +8540,11 @@
       <c r="BK40" s="27">
         <v>23034.2</v>
       </c>
-    </row>
-    <row r="41" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL40" s="27">
+        <v>5892.1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="17" t="s">
         <v>111</v>
       </c>
@@ -8614,8 +8732,11 @@
       <c r="BK41" s="12">
         <v>190047.2</v>
       </c>
-    </row>
-    <row r="42" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL41" s="12">
+        <v>50006.1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="17"/>
       <c r="B42" s="25">
         <v>1</v>
@@ -8803,8 +8924,11 @@
       <c r="BK42" s="27">
         <v>159078.6</v>
       </c>
-    </row>
-    <row r="43" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL42" s="27">
+        <v>41937.4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="17"/>
       <c r="B43" s="25">
         <v>2</v>
@@ -8992,8 +9116,11 @@
       <c r="BK43" s="27">
         <v>30968.6</v>
       </c>
-    </row>
-    <row r="44" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL43" s="27">
+        <v>8068.7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="17" t="s">
         <v>114</v>
       </c>
@@ -9181,8 +9308,11 @@
       <c r="BK44" s="12">
         <v>12024.9</v>
       </c>
-    </row>
-    <row r="45" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL44" s="12">
+        <v>2998.8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="17" t="s">
         <v>116</v>
       </c>
@@ -9370,8 +9500,11 @@
       <c r="BK45" s="12">
         <v>1771726.7</v>
       </c>
-    </row>
-    <row r="46" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL45" s="12">
+        <v>470444.2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="17" t="s">
         <v>118</v>
       </c>
@@ -9559,8 +9692,11 @@
       <c r="BK46" s="12">
         <v>2200528.9</v>
       </c>
-    </row>
-    <row r="47" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL46" s="12">
+        <v>590852.4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="17"/>
       <c r="B47" s="25">
         <v>1</v>
@@ -9748,8 +9884,11 @@
       <c r="BK47" s="27">
         <v>407880.4</v>
       </c>
-    </row>
-    <row r="48" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL47" s="27">
+        <v>107359.6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="17"/>
       <c r="B48" s="25">
         <v>2</v>
@@ -9937,8 +10076,11 @@
       <c r="BK48" s="27">
         <v>1792648.5</v>
       </c>
-    </row>
-    <row r="49" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL48" s="27">
+        <v>483492.8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="17" t="s">
         <v>122</v>
       </c>
@@ -10126,8 +10268,11 @@
       <c r="BK49" s="12">
         <v>719632.6</v>
       </c>
-    </row>
-    <row r="50" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL49" s="12">
+        <v>208523.1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="17"/>
       <c r="B50" s="25">
         <v>1</v>
@@ -10315,8 +10460,11 @@
       <c r="BK50" s="27">
         <v>7843.8</v>
       </c>
-    </row>
-    <row r="51" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL50" s="27">
+        <v>2460.6999999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="17"/>
       <c r="B51" s="25">
         <v>2</v>
@@ -10504,8 +10652,11 @@
       <c r="BK51" s="27">
         <v>407336.3</v>
       </c>
-    </row>
-    <row r="52" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL51" s="27">
+        <v>107434.6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="17"/>
       <c r="B52" s="25">
         <v>3</v>
@@ -10693,8 +10844,11 @@
       <c r="BK52" s="27">
         <v>50358.1</v>
       </c>
-    </row>
-    <row r="53" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL52" s="27">
+        <v>12210.1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="17"/>
       <c r="B53" s="25">
         <v>4</v>
@@ -10882,8 +11036,11 @@
       <c r="BK53" s="27">
         <v>16500.8</v>
       </c>
-    </row>
-    <row r="54" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL53" s="27">
+        <v>5373.6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="17"/>
       <c r="B54" s="25">
         <v>5</v>
@@ -11071,8 +11228,11 @@
       <c r="BK54" s="27">
         <v>96060.2</v>
       </c>
-    </row>
-    <row r="55" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL54" s="27">
+        <v>35590</v>
+      </c>
+    </row>
+    <row r="55" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="17"/>
       <c r="B55" s="25">
         <v>6</v>
@@ -11260,8 +11420,11 @@
       <c r="BK55" s="27">
         <v>141533.4</v>
       </c>
-    </row>
-    <row r="56" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL55" s="27">
+        <v>45454.1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="17" t="s">
         <v>71</v>
       </c>
@@ -11449,8 +11612,11 @@
       <c r="BK56" s="12">
         <v>412260.6</v>
       </c>
-    </row>
-    <row r="57" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL56" s="12">
+        <v>110086.6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="17"/>
       <c r="B57" s="25">
         <v>1</v>
@@ -11638,8 +11804,11 @@
       <c r="BK57" s="27">
         <v>79172.5</v>
       </c>
-    </row>
-    <row r="58" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL57" s="27">
+        <v>23699.7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="17"/>
       <c r="B58" s="25">
         <v>2</v>
@@ -11827,8 +11996,11 @@
       <c r="BK58" s="27">
         <v>333088.09999999998</v>
       </c>
-    </row>
-    <row r="59" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL58" s="27">
+        <v>86386.9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="17" t="s">
         <v>133</v>
       </c>
@@ -12016,8 +12188,11 @@
       <c r="BK59" s="12">
         <v>748754.7</v>
       </c>
-    </row>
-    <row r="60" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL59" s="12">
+        <v>196003.8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="17" t="s">
         <v>135</v>
       </c>
@@ -12205,8 +12380,11 @@
       <c r="BK60" s="12">
         <v>736188.8</v>
       </c>
-    </row>
-    <row r="61" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL60" s="12">
+        <v>195883.2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="17"/>
       <c r="B61" s="25">
         <v>1</v>
@@ -12394,8 +12572,11 @@
       <c r="BK61" s="27">
         <v>455258.9</v>
       </c>
-    </row>
-    <row r="62" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL61" s="27">
+        <v>124188.9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="17"/>
       <c r="B62" s="25">
         <v>2</v>
@@ -12583,8 +12764,11 @@
       <c r="BK62" s="27">
         <v>162717.29999999999</v>
       </c>
-    </row>
-    <row r="63" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL62" s="27">
+        <v>41230</v>
+      </c>
+    </row>
+    <row r="63" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="17"/>
       <c r="B63" s="25">
         <v>3</v>
@@ -12772,8 +12956,11 @@
       <c r="BK63" s="27">
         <v>103199.9</v>
       </c>
-    </row>
-    <row r="64" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL63" s="27">
+        <v>26632.2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="17"/>
       <c r="B64" s="25">
         <v>4</v>
@@ -12961,8 +13148,11 @@
       <c r="BK64" s="27">
         <v>15012.7</v>
       </c>
-    </row>
-    <row r="65" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL64" s="27">
+        <v>3832.1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="17" t="s">
         <v>141</v>
       </c>
@@ -13150,8 +13340,11 @@
       <c r="BK65" s="12">
         <v>468221.7</v>
       </c>
-    </row>
-    <row r="66" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL65" s="12">
+        <v>120446.8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="17" t="s">
         <v>143</v>
       </c>
@@ -13339,8 +13532,11 @@
       <c r="BK66" s="12">
         <v>301085.2</v>
       </c>
-    </row>
-    <row r="67" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL66" s="12">
+        <v>81021.3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="17" t="s">
         <v>145</v>
       </c>
@@ -13528,8 +13724,11 @@
       <c r="BK67" s="12">
         <v>584361</v>
       </c>
-    </row>
-    <row r="68" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL67" s="12">
+        <v>138791.20000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="17" t="s">
         <v>147</v>
       </c>
@@ -13717,8 +13916,11 @@
       <c r="BK68" s="12">
         <v>556317.80000000005</v>
       </c>
-    </row>
-    <row r="69" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL68" s="12">
+        <v>128612.1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="17" t="s">
         <v>149</v>
       </c>
@@ -13906,8 +14108,11 @@
       <c r="BK69" s="12">
         <v>226970.8</v>
       </c>
-    </row>
-    <row r="70" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL69" s="12">
+        <v>52330.7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="17" t="s">
         <v>151</v>
       </c>
@@ -14095,8 +14300,11 @@
       <c r="BK70" s="12">
         <v>312179.5</v>
       </c>
-    </row>
-    <row r="71" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL70" s="12">
+        <v>84718.3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="17"/>
       <c r="B71" s="23"/>
       <c r="C71" s="21"/>
@@ -14149,8 +14357,9 @@
       <c r="BI71" s="129"/>
       <c r="BJ71" s="129"/>
       <c r="BK71" s="129"/>
-    </row>
-    <row r="72" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL71" s="129"/>
+    </row>
+    <row r="72" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="28" t="s">
         <v>77</v>
       </c>
@@ -14338,8 +14547,11 @@
       <c r="BK72" s="27">
         <v>16284690.800000001</v>
       </c>
-    </row>
-    <row r="73" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL72" s="27">
+        <v>4336326</v>
+      </c>
+    </row>
+    <row r="73" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="28" t="s">
         <v>87</v>
       </c>
@@ -14527,8 +14739,11 @@
       <c r="BK73" s="27">
         <v>686098.4</v>
       </c>
-    </row>
-    <row r="74" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL73" s="27">
+        <v>176723.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="18" t="s">
         <v>93</v>
       </c>
@@ -14716,39 +14931,42 @@
       <c r="BK74" s="16">
         <v>16970789.199999999</v>
       </c>
-    </row>
-    <row r="75" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL74" s="16">
+        <v>4513049</v>
+      </c>
+    </row>
+    <row r="75" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
     </row>
-    <row r="76" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
         <v>161</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
     </row>
-    <row r="77" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:64" x14ac:dyDescent="0.15">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
     </row>
-    <row r="79" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:64" x14ac:dyDescent="0.15">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
     </row>
-    <row r="80" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:64" x14ac:dyDescent="0.15">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -15913,6 +16131,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="AR5:AV5"/>
+    <mergeCell ref="AW5:BA5"/>
+    <mergeCell ref="BB5:BF5"/>
+    <mergeCell ref="AH5:AL5"/>
+    <mergeCell ref="AM5:AQ5"/>
     <mergeCell ref="BG5:BK5"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="D5:H5"/>
@@ -15922,12 +16146,6 @@
     <mergeCell ref="S5:W5"/>
     <mergeCell ref="X5:AB5"/>
     <mergeCell ref="B5:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="AR5:AV5"/>
-    <mergeCell ref="AW5:BA5"/>
-    <mergeCell ref="BB5:BF5"/>
-    <mergeCell ref="AH5:AL5"/>
-    <mergeCell ref="AM5:AQ5"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -15946,7 +16164,7 @@
       <selection sqref="A1:IV65536"/>
       <selection pane="topRight" sqref="A1:IV65536"/>
       <selection pane="bottomLeft" sqref="A1:IV65536"/>
-      <selection pane="bottomRight" activeCell="BL8" sqref="BL8"/>
+      <selection pane="bottomRight" activeCell="BG11" sqref="BG11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15988,10 +16206,11 @@
     <col min="57" max="57" width="14" style="44" customWidth="1"/>
     <col min="58" max="61" width="12.75" style="44" customWidth="1"/>
     <col min="62" max="62" width="14" style="44" customWidth="1"/>
-    <col min="63" max="16359" width="9" style="44" customWidth="1"/>
+    <col min="63" max="63" width="12.75" style="44" customWidth="1"/>
+    <col min="64" max="16359" width="9" style="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" s="39" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:63" s="39" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="112" t="s">
         <v>162</v>
       </c>
@@ -16036,7 +16255,7 @@
       <c r="AO1" s="36"/>
       <c r="AP1" s="36"/>
     </row>
-    <row r="2" spans="1:62" s="39" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:63" s="39" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="112" t="s">
         <v>163</v>
       </c>
@@ -16081,7 +16300,7 @@
       <c r="AO2" s="36"/>
       <c r="AP2" s="36"/>
     </row>
-    <row r="3" spans="1:62" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:63" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="41"/>
       <c r="B3" s="41"/>
       <c r="C3" s="42"/>
@@ -16123,78 +16342,78 @@
       <c r="AO3" s="115"/>
       <c r="AP3" s="115"/>
     </row>
-    <row r="4" spans="1:62" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:63" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="45"/>
       <c r="B4" s="46"/>
-      <c r="C4" s="147">
+      <c r="C4" s="149">
         <v>2010</v>
       </c>
-      <c r="D4" s="147"/>
-      <c r="E4" s="147"/>
-      <c r="F4" s="147"/>
+      <c r="D4" s="149"/>
+      <c r="E4" s="149"/>
+      <c r="F4" s="149"/>
       <c r="G4" s="47"/>
-      <c r="H4" s="147">
+      <c r="H4" s="149">
         <v>2011</v>
       </c>
-      <c r="I4" s="147"/>
-      <c r="J4" s="147"/>
-      <c r="K4" s="147"/>
+      <c r="I4" s="149"/>
+      <c r="J4" s="149"/>
+      <c r="K4" s="149"/>
       <c r="L4" s="47"/>
-      <c r="M4" s="147">
+      <c r="M4" s="149">
         <v>2012</v>
       </c>
-      <c r="N4" s="147"/>
-      <c r="O4" s="147"/>
-      <c r="P4" s="147"/>
+      <c r="N4" s="149"/>
+      <c r="O4" s="149"/>
+      <c r="P4" s="149"/>
       <c r="Q4" s="47"/>
-      <c r="R4" s="147">
+      <c r="R4" s="149">
         <v>2013</v>
       </c>
-      <c r="S4" s="147"/>
-      <c r="T4" s="147"/>
-      <c r="U4" s="147"/>
+      <c r="S4" s="149"/>
+      <c r="T4" s="149"/>
+      <c r="U4" s="149"/>
       <c r="V4" s="47"/>
-      <c r="W4" s="147">
+      <c r="W4" s="149">
         <v>2014</v>
       </c>
-      <c r="X4" s="147"/>
-      <c r="Y4" s="147"/>
-      <c r="Z4" s="147"/>
+      <c r="X4" s="149"/>
+      <c r="Y4" s="149"/>
+      <c r="Z4" s="149"/>
       <c r="AA4" s="47"/>
-      <c r="AB4" s="147">
+      <c r="AB4" s="149">
         <v>2015</v>
       </c>
-      <c r="AC4" s="147"/>
-      <c r="AD4" s="147"/>
-      <c r="AE4" s="147"/>
+      <c r="AC4" s="149"/>
+      <c r="AD4" s="149"/>
+      <c r="AE4" s="149"/>
       <c r="AF4" s="47"/>
-      <c r="AG4" s="147">
+      <c r="AG4" s="149">
         <v>2016</v>
       </c>
-      <c r="AH4" s="147"/>
-      <c r="AI4" s="147"/>
-      <c r="AJ4" s="147"/>
+      <c r="AH4" s="149"/>
+      <c r="AI4" s="149"/>
+      <c r="AJ4" s="149"/>
       <c r="AK4" s="47"/>
-      <c r="AL4" s="147">
+      <c r="AL4" s="149">
         <v>2017</v>
       </c>
-      <c r="AM4" s="147"/>
-      <c r="AN4" s="147"/>
-      <c r="AO4" s="147"/>
+      <c r="AM4" s="149"/>
+      <c r="AN4" s="149"/>
+      <c r="AO4" s="149"/>
       <c r="AP4" s="47"/>
-      <c r="AQ4" s="147">
+      <c r="AQ4" s="149">
         <v>2018</v>
       </c>
-      <c r="AR4" s="147"/>
-      <c r="AS4" s="147"/>
-      <c r="AT4" s="147"/>
+      <c r="AR4" s="149"/>
+      <c r="AS4" s="149"/>
+      <c r="AT4" s="149"/>
       <c r="AU4" s="47"/>
-      <c r="AV4" s="147">
+      <c r="AV4" s="149">
         <v>2019</v>
       </c>
-      <c r="AW4" s="147"/>
-      <c r="AX4" s="147"/>
-      <c r="AY4" s="147"/>
+      <c r="AW4" s="149"/>
+      <c r="AX4" s="149"/>
+      <c r="AY4" s="149"/>
       <c r="AZ4" s="47"/>
       <c r="BA4" s="148">
         <v>2020</v>
@@ -16210,8 +16429,11 @@
       <c r="BH4" s="148"/>
       <c r="BI4" s="130"/>
       <c r="BJ4" s="47"/>
-    </row>
-    <row r="5" spans="1:62" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BK4" s="153" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:63" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="45"/>
       <c r="B5" s="49" t="s">
         <v>198</v>
@@ -16300,8 +16522,9 @@
       <c r="BJ5" s="51" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="6" spans="1:62" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BK5" s="122"/>
+    </row>
+    <row r="6" spans="1:63" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="53"/>
       <c r="B6" s="54"/>
       <c r="C6" s="55" t="s">
@@ -16460,8 +16683,11 @@
         <v>3</v>
       </c>
       <c r="BJ6" s="56"/>
-    </row>
-    <row r="7" spans="1:62" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BK6" s="123" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:63" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="57"/>
       <c r="B7" s="58">
         <v>-1</v>
@@ -16646,8 +16872,11 @@
       <c r="BJ7" s="119">
         <v>-61</v>
       </c>
-    </row>
-    <row r="8" spans="1:62" s="66" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BK7" s="59">
+        <v>-62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:63" s="66" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="62"/>
       <c r="B8" s="63"/>
       <c r="C8" s="64"/>
@@ -16710,8 +16939,9 @@
       <c r="BH8" s="124"/>
       <c r="BI8" s="124"/>
       <c r="BJ8" s="65"/>
-    </row>
-    <row r="9" spans="1:62" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BK8" s="124"/>
+    </row>
+    <row r="9" spans="1:63" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="67" t="s">
         <v>164</v>
       </c>
@@ -16898,8 +17128,11 @@
       <c r="BJ9" s="72">
         <v>9236010.0299999993</v>
       </c>
-    </row>
-    <row r="10" spans="1:62" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BK9" s="125">
+        <v>2421400.27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:63" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="74"/>
       <c r="B10" s="74" t="s">
         <v>165</v>
@@ -17084,8 +17317,11 @@
       <c r="BJ10" s="78">
         <v>3803177.52</v>
       </c>
-    </row>
-    <row r="11" spans="1:62" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BK10" s="126">
+        <v>995392.06</v>
+      </c>
+    </row>
+    <row r="11" spans="1:63" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="74"/>
       <c r="B11" s="74" t="s">
         <v>166</v>
@@ -17270,8 +17506,11 @@
       <c r="BJ11" s="78">
         <v>319910.75</v>
       </c>
-    </row>
-    <row r="12" spans="1:62" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BK11" s="126">
+        <v>83101.56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:63" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="74"/>
       <c r="B12" s="74" t="s">
         <v>167</v>
@@ -17456,8 +17695,11 @@
       <c r="BJ12" s="78">
         <v>1223144.6499999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:62" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BK12" s="126">
+        <v>316458.40999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:63" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="74"/>
       <c r="B13" s="79" t="s">
         <v>168</v>
@@ -17642,8 +17884,11 @@
       <c r="BJ13" s="78">
         <v>677164.25</v>
       </c>
-    </row>
-    <row r="14" spans="1:62" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BK13" s="126">
+        <v>174625.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:63" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="74"/>
       <c r="B14" s="79" t="s">
         <v>169</v>
@@ -17828,8 +18073,11 @@
       <c r="BJ14" s="78">
         <v>1861938.03</v>
       </c>
-    </row>
-    <row r="15" spans="1:62" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BK14" s="126">
+        <v>498199.81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:63" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="74"/>
       <c r="B15" s="74" t="s">
         <v>170</v>
@@ -18014,8 +18262,11 @@
       <c r="BJ15" s="78">
         <v>909175.63</v>
       </c>
-    </row>
-    <row r="16" spans="1:62" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BK15" s="126">
+        <v>239157.45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:63" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="74"/>
       <c r="B16" s="74" t="s">
         <v>171</v>
@@ -18200,8 +18451,11 @@
       <c r="BJ16" s="78">
         <v>441499.2</v>
       </c>
-    </row>
-    <row r="17" spans="1:62" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BK16" s="126">
+        <v>114465.08</v>
+      </c>
+    </row>
+    <row r="17" spans="1:63" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="74"/>
       <c r="B17" s="74"/>
       <c r="C17" s="75"/>
@@ -18264,8 +18518,9 @@
       <c r="BH17" s="126"/>
       <c r="BI17" s="126"/>
       <c r="BJ17" s="78"/>
-    </row>
-    <row r="18" spans="1:62" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BK17" s="126"/>
+    </row>
+    <row r="18" spans="1:63" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="67" t="s">
         <v>172</v>
       </c>
@@ -18452,8 +18707,11 @@
       <c r="BJ18" s="78">
         <v>207766.67</v>
       </c>
-    </row>
-    <row r="19" spans="1:62" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BK18" s="126">
+        <v>53251.15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:63" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="74"/>
       <c r="B19" s="74"/>
       <c r="C19" s="75"/>
@@ -18516,8 +18774,9 @@
       <c r="BH19" s="126"/>
       <c r="BI19" s="126"/>
       <c r="BJ19" s="78"/>
-    </row>
-    <row r="20" spans="1:62" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BK19" s="126"/>
+    </row>
+    <row r="20" spans="1:63" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="67" t="s">
         <v>173</v>
       </c>
@@ -18704,8 +18963,11 @@
       <c r="BJ20" s="72">
         <v>1551706.55</v>
       </c>
-    </row>
-    <row r="21" spans="1:62" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BK20" s="125">
+        <v>247834.38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:63" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="74"/>
       <c r="B21" s="74" t="s">
         <v>174</v>
@@ -18890,8 +19152,11 @@
       <c r="BJ21" s="78">
         <v>891773.34</v>
       </c>
-    </row>
-    <row r="22" spans="1:62" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BK21" s="126">
+        <v>154469.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:63" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="74"/>
       <c r="B22" s="74" t="s">
         <v>175</v>
@@ -19076,8 +19341,11 @@
       <c r="BJ22" s="78">
         <v>659933.21</v>
       </c>
-    </row>
-    <row r="23" spans="1:62" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BK22" s="126">
+        <v>93364.98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:63" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="80"/>
       <c r="B23" s="81"/>
       <c r="C23" s="75"/>
@@ -19140,8 +19408,9 @@
       <c r="BH23" s="126"/>
       <c r="BI23" s="126"/>
       <c r="BJ23" s="78"/>
-    </row>
-    <row r="24" spans="1:62" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BK23" s="126"/>
+    </row>
+    <row r="24" spans="1:63" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="82">
         <v>4</v>
       </c>
@@ -19328,8 +19597,11 @@
       <c r="BJ24" s="72">
         <v>5227853.9400000004</v>
       </c>
-    </row>
-    <row r="25" spans="1:62" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BK24" s="125">
+        <v>1373712.36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:63" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="80"/>
       <c r="B25" s="74" t="s">
         <v>176</v>
@@ -19514,8 +19786,11 @@
       <c r="BJ25" s="78">
         <v>3933012.08</v>
       </c>
-    </row>
-    <row r="26" spans="1:62" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BK25" s="126">
+        <v>1034832.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:63" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="80"/>
       <c r="B26" s="74" t="s">
         <v>177</v>
@@ -19700,8 +19975,11 @@
       <c r="BJ26" s="78">
         <v>535062.48</v>
       </c>
-    </row>
-    <row r="27" spans="1:62" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BK26" s="126">
+        <v>152176.54999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:63" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="80"/>
       <c r="B27" s="74" t="s">
         <v>178</v>
@@ -19886,8 +20164,11 @@
       <c r="BJ27" s="78">
         <v>258006.92</v>
       </c>
-    </row>
-    <row r="28" spans="1:62" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BK27" s="126">
+        <v>69900.95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:63" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="80"/>
       <c r="B28" s="74" t="s">
         <v>179</v>
@@ -20072,8 +20353,11 @@
       <c r="BJ28" s="78">
         <v>84536.960000000006</v>
       </c>
-    </row>
-    <row r="29" spans="1:62" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BK28" s="126">
+        <v>21742.82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:63" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="80"/>
       <c r="B29" s="74" t="s">
         <v>180</v>
@@ -20258,8 +20542,11 @@
       <c r="BJ29" s="78">
         <v>292469.93</v>
       </c>
-    </row>
-    <row r="30" spans="1:62" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BK29" s="126">
+        <v>66517.3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:63" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="80"/>
       <c r="B30" s="74" t="s">
         <v>194</v>
@@ -20444,8 +20731,11 @@
       <c r="BJ30" s="78">
         <v>124765.59</v>
       </c>
-    </row>
-    <row r="31" spans="1:62" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BK30" s="126">
+        <v>28541.94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:63" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="80"/>
       <c r="B31" s="81"/>
       <c r="C31" s="75"/>
@@ -20508,8 +20798,9 @@
       <c r="BH31" s="126"/>
       <c r="BI31" s="126"/>
       <c r="BJ31" s="78"/>
-    </row>
-    <row r="32" spans="1:62" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BK31" s="126"/>
+    </row>
+    <row r="32" spans="1:63" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="82">
         <v>5</v>
       </c>
@@ -20696,8 +20987,11 @@
       <c r="BJ32" s="72">
         <v>111142.96</v>
       </c>
-    </row>
-    <row r="33" spans="1:62" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BK32" s="125">
+        <v>110577.05</v>
+      </c>
+    </row>
+    <row r="33" spans="1:63" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="80"/>
       <c r="B33" s="81"/>
       <c r="C33" s="75"/>
@@ -20760,8 +21054,9 @@
       <c r="BH33" s="126"/>
       <c r="BI33" s="126"/>
       <c r="BJ33" s="78"/>
-    </row>
-    <row r="34" spans="1:62" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BK33" s="126"/>
+    </row>
+    <row r="34" spans="1:63" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="82">
         <v>6</v>
       </c>
@@ -20948,8 +21243,11 @@
       <c r="BJ34" s="72">
         <v>3659039.79</v>
       </c>
-    </row>
-    <row r="35" spans="1:62" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BK34" s="125">
+        <v>1042355.86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:63" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="80"/>
       <c r="B35" s="84" t="s">
         <v>182</v>
@@ -21134,8 +21432,11 @@
       <c r="BJ35" s="78">
         <v>3464808.27</v>
       </c>
-    </row>
-    <row r="36" spans="1:62" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BK35" s="126">
+        <v>989212.47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:63" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="80"/>
       <c r="B36" s="111" t="s">
         <v>183</v>
@@ -21320,8 +21621,11 @@
       <c r="BJ36" s="78">
         <v>3274470.66</v>
       </c>
-    </row>
-    <row r="37" spans="1:62" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BK36" s="126">
+        <v>937736.46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:63" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="80"/>
       <c r="B37" s="111" t="s">
         <v>184</v>
@@ -21506,8 +21810,11 @@
       <c r="BJ37" s="78">
         <v>190337.61</v>
       </c>
-    </row>
-    <row r="38" spans="1:62" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BK37" s="126">
+        <v>51476.01</v>
+      </c>
+    </row>
+    <row r="38" spans="1:63" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="80"/>
       <c r="B38" s="81" t="s">
         <v>185</v>
@@ -21692,8 +21999,11 @@
       <c r="BJ38" s="78">
         <v>194231.52</v>
       </c>
-    </row>
-    <row r="39" spans="1:62" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BK38" s="126">
+        <v>53143.39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:63" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="80"/>
       <c r="B39" s="81"/>
       <c r="C39" s="75"/>
@@ -21756,8 +22066,9 @@
       <c r="BH39" s="126"/>
       <c r="BI39" s="126"/>
       <c r="BJ39" s="78"/>
-    </row>
-    <row r="40" spans="1:62" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BK39" s="126"/>
+    </row>
+    <row r="40" spans="1:63" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="82">
         <v>7</v>
       </c>
@@ -21944,8 +22255,11 @@
       <c r="BJ40" s="72">
         <v>3201022.91</v>
       </c>
-    </row>
-    <row r="41" spans="1:62" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BK40" s="125">
+        <v>924435.05</v>
+      </c>
+    </row>
+    <row r="41" spans="1:63" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="80"/>
       <c r="B41" s="84" t="s">
         <v>182</v>
@@ -22130,8 +22444,11 @@
       <c r="BJ41" s="78">
         <v>2791731.58</v>
       </c>
-    </row>
-    <row r="42" spans="1:62" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BK41" s="126">
+        <v>810772.46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:63" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="80"/>
       <c r="B42" s="111" t="s">
         <v>183</v>
@@ -22316,8 +22633,11 @@
       <c r="BJ42" s="78">
         <v>2429969.42</v>
       </c>
-    </row>
-    <row r="43" spans="1:62" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BK42" s="126">
+        <v>687824.83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:63" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="80"/>
       <c r="B43" s="111" t="s">
         <v>184</v>
@@ -22502,8 +22822,11 @@
       <c r="BJ43" s="78">
         <v>361762.16</v>
       </c>
-    </row>
-    <row r="44" spans="1:62" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BK43" s="126">
+        <v>122947.63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:63" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="80"/>
       <c r="B44" s="81" t="s">
         <v>185</v>
@@ -22688,8 +23011,11 @@
       <c r="BJ44" s="78">
         <v>409291.33</v>
       </c>
-    </row>
-    <row r="45" spans="1:62" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BK44" s="126">
+        <v>113662.59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:63" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="80"/>
       <c r="B45" s="81"/>
       <c r="C45" s="75"/>
@@ -22752,8 +23078,9 @@
       <c r="BH45" s="126"/>
       <c r="BI45" s="126"/>
       <c r="BJ45" s="78"/>
-    </row>
-    <row r="46" spans="1:62" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BK45" s="126"/>
+    </row>
+    <row r="46" spans="1:63" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="80"/>
       <c r="B46" s="81" t="s">
         <v>186</v>
@@ -22938,8 +23265,11 @@
       <c r="BJ46" s="78">
         <v>178292.18</v>
       </c>
-    </row>
-    <row r="47" spans="1:62" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BK46" s="126">
+        <v>188352.99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:63" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="80"/>
       <c r="B47" s="81"/>
       <c r="C47" s="75"/>
@@ -23002,8 +23332,9 @@
       <c r="BH47" s="126"/>
       <c r="BI47" s="126"/>
       <c r="BJ47" s="78"/>
-    </row>
-    <row r="48" spans="1:62" s="90" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BK47" s="126"/>
+    </row>
+    <row r="48" spans="1:63" s="90" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="85">
         <v>8</v>
       </c>
@@ -23190,8 +23521,11 @@
       <c r="BJ48" s="89">
         <v>16970789.199999999</v>
       </c>
-    </row>
-    <row r="49" spans="1:61" s="90" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BK48" s="127">
+        <v>4513049</v>
+      </c>
+    </row>
+    <row r="49" spans="1:63" s="90" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="74"/>
       <c r="B49" s="67"/>
       <c r="C49" s="91"/>
@@ -23242,8 +23576,9 @@
       <c r="BG49" s="128"/>
       <c r="BH49" s="128"/>
       <c r="BI49" s="128"/>
-    </row>
-    <row r="50" spans="1:61" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BK49" s="128"/>
+    </row>
+    <row r="50" spans="1:63" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="95"/>
       <c r="B50" s="96"/>
       <c r="W50" s="95"/>
@@ -23267,7 +23602,7 @@
       <c r="AO50" s="95"/>
       <c r="AP50" s="95"/>
     </row>
-    <row r="51" spans="1:61" s="39" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:63" s="39" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="34"/>
       <c r="B51" s="34"/>
       <c r="C51" s="35"/>
@@ -23313,11 +23648,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="BF4:BH4"/>
-    <mergeCell ref="BA4:BD4"/>
-    <mergeCell ref="AV4:AY4"/>
-    <mergeCell ref="AQ4:AT4"/>
-    <mergeCell ref="AL4:AO4"/>
     <mergeCell ref="AB4:AE4"/>
     <mergeCell ref="AG4:AJ4"/>
     <mergeCell ref="C4:F4"/>
@@ -23325,6 +23655,11 @@
     <mergeCell ref="M4:P4"/>
     <mergeCell ref="R4:U4"/>
     <mergeCell ref="W4:Z4"/>
+    <mergeCell ref="BF4:BH4"/>
+    <mergeCell ref="BA4:BD4"/>
+    <mergeCell ref="AV4:AY4"/>
+    <mergeCell ref="AQ4:AT4"/>
+    <mergeCell ref="AL4:AO4"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.3"/>
   <pageSetup paperSize="9" scale="41" fitToWidth="10" fitToHeight="10" pageOrder="overThenDown" orientation="landscape" r:id="rId1"/>
@@ -23339,12 +23674,12 @@
   <sheetPr transitionEvaluation="1" codeName="Sheet2"/>
   <dimension ref="A1:XEF346"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="79" zoomScaleNormal="79" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <pane xSplit="3" ySplit="8" topLeftCell="BC9" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="79" zoomScaleNormal="79" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <pane xSplit="3" ySplit="8" topLeftCell="BF9" activePane="bottomRight" state="frozen"/>
       <selection sqref="A1:IV65536"/>
       <selection pane="topRight" sqref="A1:IV65536"/>
       <selection pane="bottomLeft" sqref="A1:IV65536"/>
-      <selection pane="bottomRight" activeCell="BH6" sqref="BH6"/>
+      <selection pane="bottomRight" activeCell="BL9" sqref="BL9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
@@ -23352,135 +23687,138 @@
     <col min="1" max="1" width="12" style="2" customWidth="1"/>
     <col min="2" max="2" width="6" style="2" customWidth="1"/>
     <col min="3" max="3" width="48" style="2" customWidth="1"/>
-    <col min="4" max="63" width="13" style="2" customWidth="1"/>
-    <col min="64" max="16360" width="8" style="2" customWidth="1"/>
+    <col min="4" max="64" width="13" style="2" customWidth="1"/>
+    <col min="65" max="16360" width="8" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:64" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:64" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>208</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>75</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="AP4" s="114"/>
       <c r="AQ4" s="114"/>
     </row>
-    <row r="5" spans="1:63" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="138" t="s">
+    <row r="5" spans="1:64" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="134" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="143" t="s">
+      <c r="B5" s="139" t="s">
         <v>156</v>
       </c>
-      <c r="C5" s="144"/>
-      <c r="D5" s="140">
+      <c r="C5" s="140"/>
+      <c r="D5" s="136">
         <v>2010</v>
       </c>
-      <c r="E5" s="141"/>
-      <c r="F5" s="141"/>
-      <c r="G5" s="141"/>
-      <c r="H5" s="142"/>
-      <c r="I5" s="140">
+      <c r="E5" s="137"/>
+      <c r="F5" s="137"/>
+      <c r="G5" s="137"/>
+      <c r="H5" s="138"/>
+      <c r="I5" s="136">
         <v>2011</v>
       </c>
-      <c r="J5" s="141"/>
-      <c r="K5" s="141"/>
-      <c r="L5" s="141"/>
-      <c r="M5" s="142"/>
-      <c r="N5" s="140">
+      <c r="J5" s="137"/>
+      <c r="K5" s="137"/>
+      <c r="L5" s="137"/>
+      <c r="M5" s="138"/>
+      <c r="N5" s="136">
         <v>2012</v>
       </c>
-      <c r="O5" s="141"/>
-      <c r="P5" s="141"/>
-      <c r="Q5" s="141"/>
-      <c r="R5" s="142"/>
-      <c r="S5" s="140">
+      <c r="O5" s="137"/>
+      <c r="P5" s="137"/>
+      <c r="Q5" s="137"/>
+      <c r="R5" s="138"/>
+      <c r="S5" s="136">
         <v>2013</v>
       </c>
-      <c r="T5" s="141"/>
-      <c r="U5" s="141"/>
-      <c r="V5" s="141"/>
-      <c r="W5" s="142"/>
-      <c r="X5" s="140">
+      <c r="T5" s="137"/>
+      <c r="U5" s="137"/>
+      <c r="V5" s="137"/>
+      <c r="W5" s="138"/>
+      <c r="X5" s="136">
         <v>2014</v>
       </c>
-      <c r="Y5" s="141"/>
-      <c r="Z5" s="141"/>
-      <c r="AA5" s="141"/>
-      <c r="AB5" s="142"/>
-      <c r="AC5" s="140">
+      <c r="Y5" s="137"/>
+      <c r="Z5" s="137"/>
+      <c r="AA5" s="137"/>
+      <c r="AB5" s="138"/>
+      <c r="AC5" s="136">
         <v>2015</v>
       </c>
-      <c r="AD5" s="141"/>
-      <c r="AE5" s="141"/>
-      <c r="AF5" s="141"/>
-      <c r="AG5" s="142"/>
-      <c r="AH5" s="134" t="s">
+      <c r="AD5" s="137"/>
+      <c r="AE5" s="137"/>
+      <c r="AF5" s="137"/>
+      <c r="AG5" s="138"/>
+      <c r="AH5" s="133" t="s">
         <v>206</v>
       </c>
-      <c r="AI5" s="135"/>
-      <c r="AJ5" s="135"/>
-      <c r="AK5" s="135"/>
-      <c r="AL5" s="135"/>
-      <c r="AM5" s="134" t="s">
+      <c r="AI5" s="145"/>
+      <c r="AJ5" s="145"/>
+      <c r="AK5" s="145"/>
+      <c r="AL5" s="145"/>
+      <c r="AM5" s="133" t="s">
         <v>205</v>
       </c>
-      <c r="AN5" s="135"/>
-      <c r="AO5" s="135"/>
-      <c r="AP5" s="135"/>
-      <c r="AQ5" s="135"/>
-      <c r="AR5" s="134" t="s">
+      <c r="AN5" s="145"/>
+      <c r="AO5" s="145"/>
+      <c r="AP5" s="145"/>
+      <c r="AQ5" s="145"/>
+      <c r="AR5" s="133" t="s">
         <v>207</v>
       </c>
-      <c r="AS5" s="135"/>
-      <c r="AT5" s="135"/>
-      <c r="AU5" s="135"/>
-      <c r="AV5" s="135"/>
-      <c r="AW5" s="134" t="s">
+      <c r="AS5" s="145"/>
+      <c r="AT5" s="145"/>
+      <c r="AU5" s="145"/>
+      <c r="AV5" s="145"/>
+      <c r="AW5" s="133" t="s">
         <v>209</v>
       </c>
-      <c r="AX5" s="135"/>
-      <c r="AY5" s="135"/>
-      <c r="AZ5" s="135"/>
-      <c r="BA5" s="135"/>
-      <c r="BB5" s="136" t="s">
+      <c r="AX5" s="145"/>
+      <c r="AY5" s="145"/>
+      <c r="AZ5" s="145"/>
+      <c r="BA5" s="145"/>
+      <c r="BB5" s="146" t="s">
         <v>210</v>
       </c>
-      <c r="BC5" s="149"/>
-      <c r="BD5" s="149"/>
-      <c r="BE5" s="149"/>
-      <c r="BF5" s="149"/>
-      <c r="BG5" s="134" t="s">
+      <c r="BC5" s="150"/>
+      <c r="BD5" s="150"/>
+      <c r="BE5" s="150"/>
+      <c r="BF5" s="150"/>
+      <c r="BG5" s="133" t="s">
         <v>211</v>
       </c>
-      <c r="BH5" s="134"/>
-      <c r="BI5" s="134"/>
-      <c r="BJ5" s="134"/>
-      <c r="BK5" s="134"/>
-    </row>
-    <row r="6" spans="1:63" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="139"/>
-      <c r="B6" s="145"/>
-      <c r="C6" s="146"/>
+      <c r="BH5" s="133"/>
+      <c r="BI5" s="133"/>
+      <c r="BJ5" s="133"/>
+      <c r="BK5" s="133"/>
+      <c r="BL5" s="132" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:64" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="135"/>
+      <c r="B6" s="141"/>
+      <c r="C6" s="142"/>
       <c r="D6" s="4" t="s">
         <v>71</v>
       </c>
@@ -23661,15 +23999,18 @@
       <c r="BK6" s="33" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="7" spans="1:63" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL6" s="33" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:64" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="14">
         <v>-1</v>
       </c>
-      <c r="B7" s="132">
+      <c r="B7" s="143">
         <v>-2</v>
       </c>
-      <c r="C7" s="133"/>
+      <c r="C7" s="144"/>
       <c r="D7" s="15">
         <v>-3</v>
       </c>
@@ -23850,8 +24191,11 @@
       <c r="BK7" s="15">
         <v>-62</v>
       </c>
-    </row>
-    <row r="8" spans="1:63" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL7" s="15">
+        <v>-63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:64" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="8"/>
       <c r="B8" s="19"/>
       <c r="C8" s="20"/>
@@ -23910,8 +24254,9 @@
       <c r="BI8" s="121"/>
       <c r="BJ8" s="121"/>
       <c r="BK8" s="121"/>
-    </row>
-    <row r="9" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL8" s="121"/>
+    </row>
+    <row r="9" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="17" t="s">
         <v>77</v>
       </c>
@@ -24099,8 +24444,11 @@
       <c r="BK9" s="12">
         <v>1403710</v>
       </c>
-    </row>
-    <row r="10" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL9" s="12">
+        <v>337437.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="17"/>
       <c r="B10" s="25">
         <v>1</v>
@@ -24288,8 +24636,11 @@
       <c r="BK10" s="27">
         <v>1072507</v>
       </c>
-    </row>
-    <row r="11" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL10" s="27">
+        <v>259728.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="17"/>
       <c r="B11" s="25"/>
       <c r="C11" s="26" t="s">
@@ -24475,8 +24826,11 @@
       <c r="BK11" s="27">
         <v>298733.3</v>
       </c>
-    </row>
-    <row r="12" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL11" s="27">
+        <v>80365</v>
+      </c>
+    </row>
+    <row r="12" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="17"/>
       <c r="B12" s="25"/>
       <c r="C12" s="26" t="s">
@@ -24662,8 +25016,11 @@
       <c r="BK12" s="27">
         <v>160429.6</v>
       </c>
-    </row>
-    <row r="13" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL12" s="27">
+        <v>37644</v>
+      </c>
+    </row>
+    <row r="13" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="17"/>
       <c r="B13" s="25"/>
       <c r="C13" s="26" t="s">
@@ -24849,8 +25206,11 @@
       <c r="BK13" s="27">
         <v>425042.6</v>
       </c>
-    </row>
-    <row r="14" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL13" s="27">
+        <v>90406.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="17"/>
       <c r="B14" s="25"/>
       <c r="C14" s="26" t="s">
@@ -25036,8 +25396,11 @@
       <c r="BK14" s="27">
         <v>167629.1</v>
       </c>
-    </row>
-    <row r="15" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL14" s="27">
+        <v>46061.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="17"/>
       <c r="B15" s="25"/>
       <c r="C15" s="26" t="s">
@@ -25223,8 +25586,11 @@
       <c r="BK15" s="27">
         <v>20672.400000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL15" s="27">
+        <v>5250.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="17"/>
       <c r="B16" s="25">
         <v>2</v>
@@ -25412,8 +25778,11 @@
       <c r="BK16" s="27">
         <v>63236.4</v>
       </c>
-    </row>
-    <row r="17" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL16" s="27">
+        <v>14385.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="17"/>
       <c r="B17" s="25">
         <v>3</v>
@@ -25601,8 +25970,11 @@
       <c r="BK17" s="27">
         <v>267966.59999999998</v>
       </c>
-    </row>
-    <row r="18" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL17" s="27">
+        <v>63324</v>
+      </c>
+    </row>
+    <row r="18" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="17" t="s">
         <v>87</v>
       </c>
@@ -25790,8 +26162,11 @@
       <c r="BK18" s="12">
         <v>822099.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL18" s="12">
+        <v>204232.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="17"/>
       <c r="B19" s="25">
         <v>1</v>
@@ -25979,8 +26354,11 @@
       <c r="BK19" s="27">
         <v>260546.1</v>
       </c>
-    </row>
-    <row r="20" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL19" s="27">
+        <v>61589.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="17"/>
       <c r="B20" s="25">
         <v>2</v>
@@ -26168,8 +26546,11 @@
       <c r="BK20" s="27">
         <v>261709.8</v>
       </c>
-    </row>
-    <row r="21" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL20" s="27">
+        <v>63061</v>
+      </c>
+    </row>
+    <row r="21" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="17"/>
       <c r="B21" s="25">
         <v>3</v>
@@ -26357,8 +26738,11 @@
       <c r="BK21" s="27">
         <v>129999.6</v>
       </c>
-    </row>
-    <row r="22" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL21" s="27">
+        <v>36196.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="17"/>
       <c r="B22" s="25">
         <v>4</v>
@@ -26546,8 +26930,11 @@
       <c r="BK22" s="27">
         <v>169844</v>
       </c>
-    </row>
-    <row r="23" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL22" s="27">
+        <v>43384.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="17" t="s">
         <v>93</v>
       </c>
@@ -26735,8 +27122,11 @@
       <c r="BK23" s="12">
         <v>2284821.7000000002</v>
       </c>
-    </row>
-    <row r="24" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL23" s="12">
+        <v>587265.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="17"/>
       <c r="B24" s="25">
         <v>1</v>
@@ -26924,8 +27314,11 @@
       <c r="BK24" s="27">
         <v>203766.9</v>
       </c>
-    </row>
-    <row r="25" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL24" s="27">
+        <v>51218.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="17"/>
       <c r="B25" s="30" t="s">
         <v>159</v>
@@ -27111,8 +27504,11 @@
       <c r="BK25" s="32">
         <v>2081054.8</v>
       </c>
-    </row>
-    <row r="26" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL25" s="32">
+        <v>536047.19999999995</v>
+      </c>
+    </row>
+    <row r="26" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="17"/>
       <c r="B26" s="25">
         <v>1</v>
@@ -27300,8 +27696,11 @@
       <c r="BK26" s="27">
         <v>775098.4</v>
       </c>
-    </row>
-    <row r="27" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL26" s="27">
+        <v>195754.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="17"/>
       <c r="B27" s="25">
         <v>2</v>
@@ -27489,8 +27888,11 @@
       <c r="BK27" s="27">
         <v>84133.3</v>
       </c>
-    </row>
-    <row r="28" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL27" s="27">
+        <v>21962</v>
+      </c>
+    </row>
+    <row r="28" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="17"/>
       <c r="B28" s="25">
         <v>3</v>
@@ -27678,8 +28080,11 @@
       <c r="BK28" s="27">
         <v>127429.1</v>
       </c>
-    </row>
-    <row r="29" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL28" s="27">
+        <v>34605.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="17"/>
       <c r="B29" s="25">
         <v>4</v>
@@ -27867,8 +28272,11 @@
       <c r="BK29" s="27">
         <v>28169.3</v>
       </c>
-    </row>
-    <row r="30" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL29" s="27">
+        <v>7783.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="17"/>
       <c r="B30" s="25">
         <v>5</v>
@@ -28056,8 +28464,11 @@
       <c r="BK30" s="27">
         <v>56050.9</v>
       </c>
-    </row>
-    <row r="31" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL30" s="27">
+        <v>14851.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="17"/>
       <c r="B31" s="25">
         <v>6</v>
@@ -28245,8 +28656,11 @@
       <c r="BK31" s="27">
         <v>78061.2</v>
       </c>
-    </row>
-    <row r="32" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL31" s="27">
+        <v>19991.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="17"/>
       <c r="B32" s="25">
         <v>7</v>
@@ -28434,8 +28848,11 @@
       <c r="BK32" s="27">
         <v>233866</v>
       </c>
-    </row>
-    <row r="33" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL32" s="27">
+        <v>59884.3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="17"/>
       <c r="B33" s="25">
         <v>8</v>
@@ -28623,8 +29040,11 @@
       <c r="BK33" s="27">
         <v>69072.800000000003</v>
       </c>
-    </row>
-    <row r="34" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL33" s="27">
+        <v>16322.7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="17"/>
       <c r="B34" s="25">
         <v>9</v>
@@ -28812,8 +29232,11 @@
       <c r="BK34" s="27">
         <v>64812</v>
       </c>
-    </row>
-    <row r="35" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL34" s="27">
+        <v>15195.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="17"/>
       <c r="B35" s="25">
         <v>10</v>
@@ -29001,8 +29424,11 @@
       <c r="BK35" s="27">
         <v>108267.3</v>
       </c>
-    </row>
-    <row r="36" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL35" s="27">
+        <v>28280</v>
+      </c>
+    </row>
+    <row r="36" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="17"/>
       <c r="B36" s="25">
         <v>11</v>
@@ -29190,8 +29616,11 @@
       <c r="BK36" s="27">
         <v>189890</v>
       </c>
-    </row>
-    <row r="37" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL36" s="27">
+        <v>49869.4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="17"/>
       <c r="B37" s="25">
         <v>12</v>
@@ -29379,8 +29808,11 @@
       <c r="BK37" s="27">
         <v>32911.1</v>
       </c>
-    </row>
-    <row r="38" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL37" s="27">
+        <v>8973.6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="17"/>
       <c r="B38" s="25">
         <v>13</v>
@@ -29568,8 +30000,11 @@
       <c r="BK38" s="27">
         <v>187750.7</v>
       </c>
-    </row>
-    <row r="39" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL38" s="27">
+        <v>50834.400000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="17"/>
       <c r="B39" s="25">
         <v>14</v>
@@ -29757,8 +30192,11 @@
       <c r="BK39" s="27">
         <v>29385.7</v>
       </c>
-    </row>
-    <row r="40" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL39" s="27">
+        <v>7632.6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="17"/>
       <c r="B40" s="25">
         <v>15</v>
@@ -29946,8 +30384,11 @@
       <c r="BK40" s="27">
         <v>16157</v>
       </c>
-    </row>
-    <row r="41" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL40" s="27">
+        <v>4107.1000000000004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="17" t="s">
         <v>111</v>
       </c>
@@ -30135,8 +30576,11 @@
       <c r="BK41" s="12">
         <v>114861.1</v>
       </c>
-    </row>
-    <row r="42" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL41" s="12">
+        <v>30172.799999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="17"/>
       <c r="B42" s="25">
         <v>1</v>
@@ -30324,8 +30768,11 @@
       <c r="BK42" s="27">
         <v>102083.9</v>
       </c>
-    </row>
-    <row r="43" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL42" s="27">
+        <v>26874.1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="17"/>
       <c r="B43" s="25">
         <v>2</v>
@@ -30513,8 +30960,11 @@
       <c r="BK43" s="27">
         <v>12777.2</v>
       </c>
-    </row>
-    <row r="44" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL43" s="27">
+        <v>3298.7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="17" t="s">
         <v>114</v>
       </c>
@@ -30702,8 +31152,11 @@
       <c r="BK44" s="12">
         <v>9919.2000000000007</v>
       </c>
-    </row>
-    <row r="45" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL44" s="12">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="45" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="17" t="s">
         <v>116</v>
       </c>
@@ -30891,8 +31344,11 @@
       <c r="BK45" s="12">
         <v>1102517.7</v>
       </c>
-    </row>
-    <row r="46" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL45" s="12">
+        <v>284580.7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="17" t="s">
         <v>118</v>
       </c>
@@ -31080,8 +31536,11 @@
       <c r="BK46" s="12">
         <v>1450226.3</v>
       </c>
-    </row>
-    <row r="47" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL46" s="12">
+        <v>371325.7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="17"/>
       <c r="B47" s="25">
         <v>1</v>
@@ -31269,8 +31728,11 @@
       <c r="BK47" s="27">
         <v>262223.8</v>
       </c>
-    </row>
-    <row r="48" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL47" s="27">
+        <v>68424.899999999994</v>
+      </c>
+    </row>
+    <row r="48" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="17"/>
       <c r="B48" s="25">
         <v>2</v>
@@ -31458,8 +31920,11 @@
       <c r="BK48" s="27">
         <v>1188002.5</v>
       </c>
-    </row>
-    <row r="49" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL48" s="27">
+        <v>302900.8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="17" t="s">
         <v>122</v>
       </c>
@@ -31647,8 +32112,11 @@
       <c r="BK49" s="12">
         <v>406187.6</v>
       </c>
-    </row>
-    <row r="50" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL49" s="12">
+        <v>112686</v>
+      </c>
+    </row>
+    <row r="50" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="17"/>
       <c r="B50" s="25">
         <v>1</v>
@@ -31836,8 +32304,11 @@
       <c r="BK50" s="27">
         <v>2339.1</v>
       </c>
-    </row>
-    <row r="51" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL50" s="27">
+        <v>730.6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="17"/>
       <c r="B51" s="25">
         <v>2</v>
@@ -32025,8 +32496,11 @@
       <c r="BK51" s="27">
         <v>259493.2</v>
       </c>
-    </row>
-    <row r="52" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL51" s="27">
+        <v>67884.600000000006</v>
+      </c>
+    </row>
+    <row r="52" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="17"/>
       <c r="B52" s="25">
         <v>3</v>
@@ -32214,8 +32688,11 @@
       <c r="BK52" s="27">
         <v>37196.6</v>
       </c>
-    </row>
-    <row r="53" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL52" s="27">
+        <v>9005.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="17"/>
       <c r="B53" s="25">
         <v>4</v>
@@ -32403,8 +32880,11 @@
       <c r="BK53" s="27">
         <v>10580</v>
       </c>
-    </row>
-    <row r="54" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL53" s="27">
+        <v>3439.8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="17"/>
       <c r="B54" s="25">
         <v>5</v>
@@ -32592,8 +33072,11 @@
       <c r="BK54" s="27">
         <v>30198.9</v>
       </c>
-    </row>
-    <row r="55" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL54" s="27">
+        <v>10522.1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="17"/>
       <c r="B55" s="25">
         <v>6</v>
@@ -32781,8 +33264,11 @@
       <c r="BK55" s="27">
         <v>66379.8</v>
       </c>
-    </row>
-    <row r="56" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL55" s="27">
+        <v>21103.4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="17" t="s">
         <v>71</v>
       </c>
@@ -32970,8 +33456,11 @@
       <c r="BK56" s="12">
         <v>310754.7</v>
       </c>
-    </row>
-    <row r="57" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL56" s="12">
+        <v>81806.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="17"/>
       <c r="B57" s="25">
         <v>1</v>
@@ -33159,8 +33648,11 @@
       <c r="BK57" s="27">
         <v>51028.6</v>
       </c>
-    </row>
-    <row r="58" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL57" s="27">
+        <v>15159.6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="17"/>
       <c r="B58" s="25">
         <v>2</v>
@@ -33348,8 +33840,11 @@
       <c r="BK58" s="27">
         <v>259726.1</v>
       </c>
-    </row>
-    <row r="59" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL58" s="27">
+        <v>66646.899999999994</v>
+      </c>
+    </row>
+    <row r="59" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="17" t="s">
         <v>133</v>
       </c>
@@ -33537,8 +34032,11 @@
       <c r="BK59" s="12">
         <v>696460.4</v>
       </c>
-    </row>
-    <row r="60" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL59" s="12">
+        <v>181729.1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="17" t="s">
         <v>135</v>
       </c>
@@ -33726,8 +34224,11 @@
       <c r="BK60" s="12">
         <v>464638.6</v>
       </c>
-    </row>
-    <row r="61" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL60" s="12">
+        <v>119062</v>
+      </c>
+    </row>
+    <row r="61" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="17"/>
       <c r="B61" s="25">
         <v>1</v>
@@ -33915,8 +34416,11 @@
       <c r="BK61" s="27">
         <v>285571.59999999998</v>
       </c>
-    </row>
-    <row r="62" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL61" s="27">
+        <v>74179.600000000006</v>
+      </c>
+    </row>
+    <row r="62" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="17"/>
       <c r="B62" s="25">
         <v>2</v>
@@ -34104,8 +34608,11 @@
       <c r="BK62" s="27">
         <v>103155.1</v>
       </c>
-    </row>
-    <row r="63" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL62" s="27">
+        <v>25670</v>
+      </c>
+    </row>
+    <row r="63" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="17"/>
       <c r="B63" s="25">
         <v>3</v>
@@ -34293,8 +34800,11 @@
       <c r="BK63" s="27">
         <v>65886.3</v>
       </c>
-    </row>
-    <row r="64" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL63" s="27">
+        <v>16699</v>
+      </c>
+    </row>
+    <row r="64" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="17"/>
       <c r="B64" s="25">
         <v>4</v>
@@ -34482,8 +34992,11 @@
       <c r="BK64" s="27">
         <v>10025.6</v>
       </c>
-    </row>
-    <row r="65" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL64" s="27">
+        <v>2513.4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="17" t="s">
         <v>141</v>
       </c>
@@ -34671,8 +35184,11 @@
       <c r="BK65" s="12">
         <v>333282.90000000002</v>
       </c>
-    </row>
-    <row r="66" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL65" s="12">
+        <v>84668.9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="17" t="s">
         <v>143</v>
       </c>
@@ -34860,8 +35376,11 @@
       <c r="BK66" s="12">
         <v>197106.7</v>
       </c>
-    </row>
-    <row r="67" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL66" s="12">
+        <v>52092.4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="17" t="s">
         <v>145</v>
       </c>
@@ -35049,8 +35568,11 @@
       <c r="BK67" s="12">
         <v>364233.4</v>
       </c>
-    </row>
-    <row r="68" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL67" s="12">
+        <v>87153.8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="17" t="s">
         <v>147</v>
       </c>
@@ -35238,8 +35760,11 @@
       <c r="BK68" s="12">
         <v>350655.3</v>
       </c>
-    </row>
-    <row r="69" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL68" s="12">
+        <v>81224.2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="17" t="s">
         <v>149</v>
       </c>
@@ -35427,8 +35952,11 @@
       <c r="BK69" s="12">
         <v>157104.70000000001</v>
       </c>
-    </row>
-    <row r="70" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL69" s="12">
+        <v>36534.800000000003</v>
+      </c>
+    </row>
+    <row r="70" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="17" t="s">
         <v>151</v>
       </c>
@@ -35616,8 +36144,11 @@
       <c r="BK70" s="12">
         <v>200772.9</v>
       </c>
-    </row>
-    <row r="71" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL70" s="12">
+        <v>53775.4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="17"/>
       <c r="B71" s="23"/>
       <c r="C71" s="21"/>
@@ -35676,8 +36207,9 @@
       <c r="BI71" s="121"/>
       <c r="BJ71" s="121"/>
       <c r="BK71" s="121"/>
-    </row>
-    <row r="72" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL71" s="121"/>
+    </row>
+    <row r="72" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="28" t="s">
         <v>77</v>
       </c>
@@ -35865,8 +36397,11 @@
       <c r="BK72" s="27">
         <v>10669352.699999999</v>
       </c>
-    </row>
-    <row r="73" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL72" s="27">
+        <v>2708208</v>
+      </c>
+    </row>
+    <row r="73" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="28" t="s">
         <v>87</v>
       </c>
@@ -36054,8 +36589,11 @@
       <c r="BK73" s="27">
         <v>449515.8</v>
       </c>
-    </row>
-    <row r="74" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL73" s="27">
+        <v>110370.9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="18" t="s">
         <v>93</v>
       </c>
@@ -36243,39 +36781,42 @@
       <c r="BK74" s="16">
         <v>11118868.5</v>
       </c>
-    </row>
-    <row r="75" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BL74" s="16">
+        <v>2818579</v>
+      </c>
+    </row>
+    <row r="75" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
     </row>
-    <row r="76" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
         <v>161</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
     </row>
-    <row r="77" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:64" x14ac:dyDescent="0.15">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
     </row>
-    <row r="79" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:64" x14ac:dyDescent="0.15">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
     </row>
-    <row r="80" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:64" x14ac:dyDescent="0.15">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -37440,6 +37981,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="AH5:AL5"/>
+    <mergeCell ref="X5:AB5"/>
+    <mergeCell ref="S5:W5"/>
+    <mergeCell ref="AC5:AG5"/>
     <mergeCell ref="BG5:BK5"/>
     <mergeCell ref="BB5:BF5"/>
     <mergeCell ref="A5:A6"/>
@@ -37450,11 +37996,6 @@
     <mergeCell ref="AW5:BA5"/>
     <mergeCell ref="AM5:AQ5"/>
     <mergeCell ref="AR5:AV5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="AH5:AL5"/>
-    <mergeCell ref="X5:AB5"/>
-    <mergeCell ref="S5:W5"/>
-    <mergeCell ref="AC5:AG5"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -37473,12 +38014,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XEE50"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="7" topLeftCell="AZ8" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="7" topLeftCell="BA8" activePane="bottomRight" state="frozen"/>
       <selection sqref="A1:IV65536"/>
       <selection pane="topRight" sqref="A1:IV65536"/>
       <selection pane="bottomLeft" sqref="A1:IV65536"/>
-      <selection pane="bottomRight" activeCell="BH2" sqref="BH2"/>
+      <selection pane="bottomRight" activeCell="BG6" sqref="BG6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -37523,10 +38064,11 @@
     <col min="57" max="57" width="14" style="44" customWidth="1"/>
     <col min="58" max="61" width="13" style="44" customWidth="1"/>
     <col min="62" max="62" width="14" style="44" customWidth="1"/>
-    <col min="63" max="16359" width="9" style="44" customWidth="1"/>
+    <col min="63" max="63" width="13" style="44" customWidth="1"/>
+    <col min="64" max="16359" width="9" style="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:63" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="95"/>
       <c r="B1" s="96"/>
       <c r="W1" s="95"/>
@@ -37550,7 +38092,7 @@
       <c r="AO1" s="95"/>
       <c r="AP1" s="95"/>
     </row>
-    <row r="2" spans="1:62" s="39" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:63" s="39" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="112" t="s">
         <v>188</v>
       </c>
@@ -37596,7 +38138,7 @@
       <c r="AO2" s="36"/>
       <c r="AP2" s="36"/>
     </row>
-    <row r="3" spans="1:62" s="39" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:63" s="39" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="112" t="s">
         <v>189</v>
       </c>
@@ -37642,78 +38184,78 @@
       <c r="AO3" s="36"/>
       <c r="AP3" s="36"/>
     </row>
-    <row r="4" spans="1:62" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:63" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="46"/>
       <c r="B4" s="46"/>
-      <c r="C4" s="147">
+      <c r="C4" s="149">
         <v>2010</v>
       </c>
-      <c r="D4" s="147"/>
-      <c r="E4" s="147"/>
-      <c r="F4" s="147"/>
+      <c r="D4" s="149"/>
+      <c r="E4" s="149"/>
+      <c r="F4" s="149"/>
       <c r="G4" s="47"/>
-      <c r="H4" s="147">
+      <c r="H4" s="149">
         <v>2011</v>
       </c>
-      <c r="I4" s="147"/>
-      <c r="J4" s="147"/>
-      <c r="K4" s="147"/>
+      <c r="I4" s="149"/>
+      <c r="J4" s="149"/>
+      <c r="K4" s="149"/>
       <c r="L4" s="47"/>
-      <c r="M4" s="147">
+      <c r="M4" s="149">
         <v>2012</v>
       </c>
-      <c r="N4" s="147"/>
-      <c r="O4" s="147"/>
-      <c r="P4" s="147"/>
+      <c r="N4" s="149"/>
+      <c r="O4" s="149"/>
+      <c r="P4" s="149"/>
       <c r="Q4" s="47"/>
-      <c r="R4" s="147">
+      <c r="R4" s="149">
         <v>2013</v>
       </c>
-      <c r="S4" s="147"/>
-      <c r="T4" s="147"/>
-      <c r="U4" s="147"/>
+      <c r="S4" s="149"/>
+      <c r="T4" s="149"/>
+      <c r="U4" s="149"/>
       <c r="V4" s="47"/>
-      <c r="W4" s="147">
+      <c r="W4" s="149">
         <v>2014</v>
       </c>
-      <c r="X4" s="147"/>
-      <c r="Y4" s="147"/>
-      <c r="Z4" s="147"/>
+      <c r="X4" s="149"/>
+      <c r="Y4" s="149"/>
+      <c r="Z4" s="149"/>
       <c r="AA4" s="47"/>
-      <c r="AB4" s="147">
+      <c r="AB4" s="149">
         <v>2015</v>
       </c>
-      <c r="AC4" s="147"/>
-      <c r="AD4" s="147"/>
-      <c r="AE4" s="147"/>
+      <c r="AC4" s="149"/>
+      <c r="AD4" s="149"/>
+      <c r="AE4" s="149"/>
       <c r="AF4" s="47"/>
-      <c r="AG4" s="147">
+      <c r="AG4" s="149">
         <v>2016</v>
       </c>
-      <c r="AH4" s="147"/>
-      <c r="AI4" s="147"/>
-      <c r="AJ4" s="147"/>
+      <c r="AH4" s="149"/>
+      <c r="AI4" s="149"/>
+      <c r="AJ4" s="149"/>
       <c r="AK4" s="47"/>
-      <c r="AL4" s="147">
+      <c r="AL4" s="149">
         <v>2017</v>
       </c>
-      <c r="AM4" s="147"/>
-      <c r="AN4" s="147"/>
-      <c r="AO4" s="147"/>
+      <c r="AM4" s="149"/>
+      <c r="AN4" s="149"/>
+      <c r="AO4" s="149"/>
       <c r="AP4" s="47"/>
-      <c r="AQ4" s="147">
+      <c r="AQ4" s="149">
         <v>2018</v>
       </c>
-      <c r="AR4" s="147"/>
-      <c r="AS4" s="147"/>
-      <c r="AT4" s="147"/>
+      <c r="AR4" s="149"/>
+      <c r="AS4" s="149"/>
+      <c r="AT4" s="149"/>
       <c r="AU4" s="47"/>
-      <c r="AV4" s="147">
+      <c r="AV4" s="149">
         <v>2019</v>
       </c>
-      <c r="AW4" s="147"/>
-      <c r="AX4" s="147"/>
-      <c r="AY4" s="147"/>
+      <c r="AW4" s="149"/>
+      <c r="AX4" s="149"/>
+      <c r="AY4" s="149"/>
       <c r="AZ4" s="47"/>
       <c r="BA4" s="148">
         <v>2020</v>
@@ -37722,15 +38264,18 @@
       <c r="BC4" s="148"/>
       <c r="BD4" s="148"/>
       <c r="BE4" s="47"/>
-      <c r="BF4" s="150" t="s">
-        <v>211</v>
-      </c>
-      <c r="BG4" s="150"/>
-      <c r="BH4" s="150"/>
+      <c r="BF4" s="151" t="s">
+        <v>213</v>
+      </c>
+      <c r="BG4" s="151"/>
+      <c r="BH4" s="151"/>
       <c r="BI4" s="131"/>
       <c r="BJ4" s="47"/>
-    </row>
-    <row r="5" spans="1:62" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BK4" s="153" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:63" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="46"/>
       <c r="B5" s="49" t="s">
         <v>198</v>
@@ -37812,15 +38357,15 @@
       <c r="BE5" s="117" t="s">
         <v>72</v>
       </c>
-      <c r="BF5" s="151"/>
-      <c r="BG5" s="151"/>
-      <c r="BH5" s="151"/>
+      <c r="BF5" s="152"/>
+      <c r="BG5" s="152"/>
+      <c r="BH5" s="152"/>
       <c r="BI5" s="110"/>
       <c r="BJ5" s="117" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:62" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:63" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="97"/>
       <c r="B6" s="54"/>
       <c r="C6" s="55" t="s">
@@ -37979,8 +38524,11 @@
         <v>3</v>
       </c>
       <c r="BJ6" s="99"/>
-    </row>
-    <row r="7" spans="1:62" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BK6" s="98" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:63" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="100"/>
       <c r="B7" s="58">
         <v>-1</v>
@@ -38163,10 +38711,13 @@
         <v>-60</v>
       </c>
       <c r="BJ7" s="119">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:62" s="66" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>-61</v>
+      </c>
+      <c r="BK7" s="60">
+        <v>-62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:63" s="66" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="101"/>
       <c r="B8" s="63"/>
       <c r="C8" s="64"/>
@@ -38229,8 +38780,9 @@
       <c r="BH8" s="102"/>
       <c r="BI8" s="102"/>
       <c r="BJ8" s="103"/>
-    </row>
-    <row r="9" spans="1:62" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BK8" s="102"/>
+    </row>
+    <row r="9" spans="1:63" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="104" t="s">
         <v>164</v>
       </c>
@@ -38417,8 +38969,11 @@
       <c r="BJ9" s="72">
         <v>5896697.4299999997</v>
       </c>
-    </row>
-    <row r="10" spans="1:62" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BK9" s="71">
+        <v>1513463.56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:63" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="74"/>
       <c r="B10" s="74" t="s">
         <v>165</v>
@@ -38603,8 +39158,11 @@
       <c r="BJ10" s="78">
         <v>2221746.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:62" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BK10" s="77">
+        <v>564070.72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:63" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="74"/>
       <c r="B11" s="74" t="s">
         <v>166</v>
@@ -38789,8 +39347,11 @@
       <c r="BJ11" s="78">
         <v>221059.01</v>
       </c>
-    </row>
-    <row r="12" spans="1:62" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BK11" s="77">
+        <v>56690.74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:63" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="74"/>
       <c r="B12" s="74" t="s">
         <v>167</v>
@@ -38975,8 +39536,11 @@
       <c r="BJ12" s="78">
         <v>832381.76</v>
       </c>
-    </row>
-    <row r="13" spans="1:62" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BK12" s="77">
+        <v>211898.84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:63" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="74"/>
       <c r="B13" s="79" t="s">
         <v>168</v>
@@ -39161,8 +39725,11 @@
       <c r="BJ13" s="78">
         <v>437838.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:62" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BK13" s="77">
+        <v>111627.31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:63" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="74"/>
       <c r="B14" s="79" t="s">
         <v>169</v>
@@ -39347,8 +39914,11 @@
       <c r="BJ14" s="78">
         <v>1368561.28</v>
       </c>
-    </row>
-    <row r="15" spans="1:62" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BK14" s="77">
+        <v>359855.28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:63" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="74"/>
       <c r="B15" s="74" t="s">
         <v>199</v>
@@ -39533,8 +40103,11 @@
       <c r="BJ15" s="78">
         <v>536199.62</v>
       </c>
-    </row>
-    <row r="16" spans="1:62" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BK15" s="77">
+        <v>138382.04</v>
+      </c>
+    </row>
+    <row r="16" spans="1:63" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="74"/>
       <c r="B16" s="74" t="s">
         <v>171</v>
@@ -39719,8 +40292,11 @@
       <c r="BJ16" s="78">
         <v>278910.75</v>
       </c>
-    </row>
-    <row r="17" spans="1:62" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BK16" s="77">
+        <v>70938.63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:63" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="74"/>
       <c r="B17" s="74"/>
       <c r="C17" s="75"/>
@@ -39783,8 +40359,9 @@
       <c r="BH17" s="77"/>
       <c r="BI17" s="77"/>
       <c r="BJ17" s="78"/>
-    </row>
-    <row r="18" spans="1:62" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BK17" s="77"/>
+    </row>
+    <row r="18" spans="1:63" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="67" t="s">
         <v>172</v>
       </c>
@@ -39971,8 +40548,11 @@
       <c r="BJ18" s="78">
         <v>132316.75</v>
       </c>
-    </row>
-    <row r="19" spans="1:62" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BK18" s="77">
+        <v>33310.17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:63" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="74"/>
       <c r="B19" s="74"/>
       <c r="C19" s="75"/>
@@ -40035,8 +40615,9 @@
       <c r="BH19" s="77"/>
       <c r="BI19" s="77"/>
       <c r="BJ19" s="78"/>
-    </row>
-    <row r="20" spans="1:62" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BK19" s="77"/>
+    </row>
+    <row r="20" spans="1:63" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="67" t="s">
         <v>173</v>
       </c>
@@ -40223,8 +40804,11 @@
       <c r="BJ20" s="72">
         <v>909173.25</v>
       </c>
-    </row>
-    <row r="21" spans="1:62" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BK20" s="71">
+        <v>150983.69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:63" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="74"/>
       <c r="B21" s="74" t="s">
         <v>174</v>
@@ -40409,8 +40993,11 @@
       <c r="BJ21" s="78">
         <v>521844.82</v>
       </c>
-    </row>
-    <row r="22" spans="1:62" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BK21" s="77">
+        <v>94384.19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:63" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="74"/>
       <c r="B22" s="74" t="s">
         <v>175</v>
@@ -40595,8 +41182,11 @@
       <c r="BJ22" s="78">
         <v>387328.43</v>
       </c>
-    </row>
-    <row r="23" spans="1:62" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BK22" s="77">
+        <v>56599.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:63" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="80"/>
       <c r="B23" s="81"/>
       <c r="C23" s="75"/>
@@ -40659,8 +41249,9 @@
       <c r="BH23" s="77"/>
       <c r="BI23" s="77"/>
       <c r="BJ23" s="78"/>
-    </row>
-    <row r="24" spans="1:62" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BK23" s="77"/>
+    </row>
+    <row r="24" spans="1:63" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="113" t="s">
         <v>200</v>
       </c>
@@ -40847,8 +41438,11 @@
       <c r="BJ24" s="72">
         <v>3549218.8</v>
       </c>
-    </row>
-    <row r="25" spans="1:62" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BK24" s="71">
+        <v>910202.33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:63" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="80"/>
       <c r="B25" s="74" t="s">
         <v>176</v>
@@ -41033,8 +41627,11 @@
       <c r="BJ25" s="78">
         <v>2645502.2200000002</v>
       </c>
-    </row>
-    <row r="26" spans="1:62" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BK25" s="77">
+        <v>675185.36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:63" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="80"/>
       <c r="B26" s="74" t="s">
         <v>177</v>
@@ -41219,8 +41816,11 @@
       <c r="BJ26" s="78">
         <v>382273.44</v>
       </c>
-    </row>
-    <row r="27" spans="1:62" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BK26" s="77">
+        <v>108373.53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:63" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="80"/>
       <c r="B27" s="74" t="s">
         <v>178</v>
@@ -41405,8 +42005,11 @@
       <c r="BJ27" s="78">
         <v>187893.93</v>
       </c>
-    </row>
-    <row r="28" spans="1:62" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BK27" s="77">
+        <v>49778.87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:63" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="80"/>
       <c r="B28" s="74" t="s">
         <v>179</v>
@@ -41591,8 +42194,11 @@
       <c r="BJ28" s="78">
         <v>56790.14</v>
       </c>
-    </row>
-    <row r="29" spans="1:62" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BK28" s="77">
+        <v>14485.72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:63" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="80"/>
       <c r="B29" s="74" t="s">
         <v>181</v>
@@ -41777,8 +42383,11 @@
       <c r="BJ29" s="78">
         <v>197336.28</v>
       </c>
-    </row>
-    <row r="30" spans="1:62" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BK29" s="77">
+        <v>44492.17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:63" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="80"/>
       <c r="B30" s="74" t="s">
         <v>201</v>
@@ -41963,8 +42572,11 @@
       <c r="BJ30" s="78">
         <v>79422.789999999994</v>
       </c>
-    </row>
-    <row r="31" spans="1:62" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BK30" s="77">
+        <v>17886.68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:63" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="80"/>
       <c r="B31" s="81"/>
       <c r="C31" s="75"/>
@@ -42027,8 +42639,9 @@
       <c r="BH31" s="77"/>
       <c r="BI31" s="77"/>
       <c r="BJ31" s="78"/>
-    </row>
-    <row r="32" spans="1:62" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BK31" s="77"/>
+    </row>
+    <row r="32" spans="1:63" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="113" t="s">
         <v>202</v>
       </c>
@@ -42215,8 +42828,11 @@
       <c r="BJ32" s="72">
         <v>62709.09</v>
       </c>
-    </row>
-    <row r="33" spans="1:62" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BK32" s="71">
+        <v>60312.02</v>
+      </c>
+    </row>
+    <row r="33" spans="1:63" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="80"/>
       <c r="B33" s="81"/>
       <c r="C33" s="75"/>
@@ -42279,8 +42895,9 @@
       <c r="BH33" s="77"/>
       <c r="BI33" s="77"/>
       <c r="BJ33" s="78"/>
-    </row>
-    <row r="34" spans="1:62" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BK33" s="77"/>
+    </row>
+    <row r="34" spans="1:63" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="113" t="s">
         <v>203</v>
       </c>
@@ -42467,8 +43084,11 @@
       <c r="BJ34" s="72">
         <v>2592682.34</v>
       </c>
-    </row>
-    <row r="35" spans="1:62" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BK34" s="71">
+        <v>681832.21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:63" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="80"/>
       <c r="B35" s="84" t="s">
         <v>182</v>
@@ -42653,8 +43273,11 @@
       <c r="BJ35" s="78">
         <v>2481821.8199999998</v>
       </c>
-    </row>
-    <row r="36" spans="1:62" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BK35" s="77">
+        <v>652899.71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:63" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="80"/>
       <c r="B36" s="111" t="s">
         <v>183</v>
@@ -42839,8 +43462,11 @@
       <c r="BJ36" s="78">
         <v>2262981.67</v>
       </c>
-    </row>
-    <row r="37" spans="1:62" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BK36" s="77">
+        <v>607113.1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:63" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="80"/>
       <c r="B37" s="111" t="s">
         <v>184</v>
@@ -43025,8 +43651,11 @@
       <c r="BJ37" s="78">
         <v>218840.15</v>
       </c>
-    </row>
-    <row r="38" spans="1:62" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BK37" s="77">
+        <v>45786.61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:63" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="80"/>
       <c r="B38" s="81" t="s">
         <v>185</v>
@@ -43211,8 +43840,11 @@
       <c r="BJ38" s="78">
         <v>110860.51</v>
       </c>
-    </row>
-    <row r="39" spans="1:62" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BK38" s="77">
+        <v>28932.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:63" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="80"/>
       <c r="B39" s="81"/>
       <c r="C39" s="75"/>
@@ -43275,8 +43907,9 @@
       <c r="BH39" s="77"/>
       <c r="BI39" s="77"/>
       <c r="BJ39" s="78"/>
-    </row>
-    <row r="40" spans="1:62" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BK39" s="77"/>
+    </row>
+    <row r="40" spans="1:63" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="113" t="s">
         <v>204</v>
       </c>
@@ -43463,8 +44096,11 @@
       <c r="BJ40" s="72">
         <v>2101351.67</v>
       </c>
-    </row>
-    <row r="41" spans="1:62" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BK40" s="71">
+        <v>559741.34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:63" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="80"/>
       <c r="B41" s="84" t="s">
         <v>182</v>
@@ -43649,8 +44285,11 @@
       <c r="BJ41" s="78">
         <v>1892980.32</v>
       </c>
-    </row>
-    <row r="42" spans="1:62" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BK41" s="77">
+        <v>504786.33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:63" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="80"/>
       <c r="B42" s="111" t="s">
         <v>183</v>
@@ -43835,8 +44474,11 @@
       <c r="BJ42" s="78">
         <v>1623580.14</v>
       </c>
-    </row>
-    <row r="43" spans="1:62" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BK42" s="77">
+        <v>433946.14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:63" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="80"/>
       <c r="B43" s="111" t="s">
         <v>184</v>
@@ -44021,8 +44663,11 @@
       <c r="BJ43" s="78">
         <v>269400.18</v>
       </c>
-    </row>
-    <row r="44" spans="1:62" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BK43" s="77">
+        <v>70840.19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:63" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="80"/>
       <c r="B44" s="81" t="s">
         <v>185</v>
@@ -44207,8 +44852,11 @@
       <c r="BJ44" s="78">
         <v>208371.35</v>
       </c>
-    </row>
-    <row r="45" spans="1:62" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BK44" s="77">
+        <v>54955.01</v>
+      </c>
+    </row>
+    <row r="45" spans="1:63" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="80"/>
       <c r="B45" s="81"/>
       <c r="C45" s="75"/>
@@ -44271,8 +44919,9 @@
       <c r="BH45" s="77"/>
       <c r="BI45" s="77"/>
       <c r="BJ45" s="78"/>
-    </row>
-    <row r="46" spans="1:62" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BK45" s="77"/>
+    </row>
+    <row r="46" spans="1:63" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="80"/>
       <c r="B46" s="81" t="s">
         <v>186</v>
@@ -44457,8 +45106,11 @@
       <c r="BJ46" s="78">
         <v>77422.509999999995</v>
       </c>
-    </row>
-    <row r="47" spans="1:62" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BK46" s="77">
+        <v>28216.38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:63" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="80"/>
       <c r="B47" s="81"/>
       <c r="C47" s="75"/>
@@ -44521,8 +45173,9 @@
       <c r="BH47" s="77"/>
       <c r="BI47" s="77"/>
       <c r="BJ47" s="78"/>
-    </row>
-    <row r="48" spans="1:62" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BK47" s="77"/>
+    </row>
+    <row r="48" spans="1:63" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="85">
         <v>8</v>
       </c>
@@ -44708,6 +45361,9 @@
       </c>
       <c r="BJ48" s="72">
         <v>11118868.5</v>
+      </c>
+      <c r="BK48" s="71">
+        <v>2818579</v>
       </c>
     </row>
     <row r="49" spans="1:42" s="73" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
